--- a/biology/Botanique/Bagassa_guianensis/Bagassa_guianensis.xlsx
+++ b/biology/Botanique/Bagassa_guianensis/Bagassa_guianensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bagassa guianensis est une espèce de plantes à fleurs de la famille des Moraceae. C'est un grand arbre pionnier d'origine sud-américaine. C'est l'espèce type du genre monospécifique Bagassa Aubl..
-Elle est connue dans les Guyanes, sous les noms de Bagasse, Bois vache, Maman bœuf, Odoun (Créole), Pakasa (Wayãpi), Pakad (Palikur), Tatajuba (Portugais)[2],[3], Bacasse, Bagasse, Bakassa, Bakasse (Caribe), Cow wood (Anglais), Kaw-oedoe (Sranan tongo), Odon, Odou, Odoun (Paramaka), Yawahedan (Arawak)[4]. On l'appelle Tatajuba, Amapa-Rana au Brésil[5].
+Elle est connue dans les Guyanes, sous les noms de Bagasse, Bois vache, Maman bœuf, Odoun (Créole), Pakasa (Wayãpi), Pakad (Palikur), Tatajuba (Portugais) Bacasse, Bagasse, Bakassa, Bakasse (Caribe), Cow wood (Anglais), Kaw-oedoe (Sranan tongo), Odon, Odou, Odoun (Paramaka), Yawahedan (Arawak). On l'appelle Tatajuba, Amapa-Rana au Brésil.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bagassa guianensis est un arbre dioïque, atteignant 45 m de haut, avec des rameaux feuillés épais de 3-4 mm, finement pubérulents (scabres sur les tiges juvéniles), et avec des branches latérales horizontales non caduques.
 Les feuilles sont simples opposées, wikt:cartacé à subcoriace.
@@ -530,7 +544,7 @@
 Les inflorescences unisexuées naissent à l'aisselle des feuilles.
 L'inflorescence staminées (mâle) en épi, est longue de 4 à 13 cm, dont 1 à 2 cm pour le pédoncule. Les fleurs portent à 4 sépales et 2 étamines.
 L'inflorescence pistillée (femelle) globuleuse, mesure de 1-1,5 cm de diamètre, dont 0,5 à 1,5 cm pour le pédoncule.
-Les fruits sont petits, ressemblant à des drupes, entourés d'un périanthe charnu, verdâtres à maturité, sont agrégés en infrutescences globuleuses verdâtres, mesurant 2,5-3,5 cm de diamètre[4],[6],[3].
+Les fruits sont petits, ressemblant à des drupes, entourés d'un périanthe charnu, verdâtres à maturité, sont agrégés en infrutescences globuleuses verdâtres, mesurant 2,5-3,5 cm de diamètre.
 </t>
         </is>
       </c>
@@ -559,9 +573,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bagassa guianensis est présent au Suriname, en Guyane et au Brésil (Pará, Maranhão et nord du Mato Grosso)[4],[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bagassa guianensis est présent au Suriname, en Guyane et au Brésil (Pará, Maranhão et nord du Mato Grosso),.
 </t>
         </is>
       </c>
@@ -590,11 +606,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bagassa guianensis est un grand arbre pionnier à croissance rapide de canopée ou émergent, peu commun dans les forêts anciennes et les vieilles forêts secondaires, au latex très abondant[2], qui affectionne les futaies sempervirente à semi-persistante, non inondée, mais surtout les végétations secondaires où il peut être commun. Il est fertile d'août à décembre[4],[3].
-En Guyane, l’exploitation de cette espèce, relativement peu commune en forêt, est réglementée par l’ONF car elle est considérée comme une « espèce clé » en raison de sa fructification à contre-saison qui permet de nourrir un grand nombre d’animaux[7].
-On a étudié les effets de son exploitation sur la génétique de ses populations[8],[9],[10],[11].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bagassa guianensis est un grand arbre pionnier à croissance rapide de canopée ou émergent, peu commun dans les forêts anciennes et les vieilles forêts secondaires, au latex très abondant, qui affectionne les futaies sempervirente à semi-persistante, non inondée, mais surtout les végétations secondaires où il peut être commun. Il est fertile d'août à décembre,.
+En Guyane, l’exploitation de cette espèce, relativement peu commune en forêt, est réglementée par l’ONF car elle est considérée comme une « espèce clé » en raison de sa fructification à contre-saison qui permet de nourrir un grand nombre d’animaux.
+On a étudié les effets de son exploitation sur la génétique de ses populations.
 </t>
         </is>
       </c>
@@ -623,18 +641,18 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bagassa guianensis connu en Guyane et en Amazonie pour son bois jaune doré de haute qualité, naturellement imputrescible (notamment grâce à sa teneur en arachidine[12]) et résistant aux termites[13], ressemblant à l’Iroko d’Afrique, et très apprécié pour des usages intérieurs et extérieurs[14],[5],[15]. Les propriétés de son bois ont été largement étudiées[16].
-Le latex laiteux et comestible de Bagassa guianensis était bu par les balatistes (saigneurs de Balata) lorsque la nourriture était rare[4].
-Les troncs sont également utilisés pour la construction de pirogues[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bagassa guianensis connu en Guyane et en Amazonie pour son bois jaune doré de haute qualité, naturellement imputrescible (notamment grâce à sa teneur en arachidine) et résistant aux termites, ressemblant à l’Iroko d’Afrique, et très apprécié pour des usages intérieurs et extérieurs. Les propriétés de son bois ont été largement étudiées.
+Le latex laiteux et comestible de Bagassa guianensis était bu par les balatistes (saigneurs de Balata) lorsque la nourriture était rare.
+Les troncs sont également utilisés pour la construction de pirogues.
 Les Palikur l'emploient à des fins magiques : les chasseurs consomment l'eau de pluie contenue dans les "coupes" formées par les feuilles tombées au sol, pour favoriser la rencontre d'un jaguar à chaque sortie de chasse.
-Le bain préparé avec les feuilles donne un don de divination aux personnes qui possèdent des dons chamaniques (l'utilisation de cet arbre est réputée dangereuse)[2].
-La sciure du bois de Bagassa guianensis peut être utilisé pour se propriétés adsorbantes remarquables[17].
-Les extraits de Bagassa guianensis ont des propriétés anti-corrosives sur le zinc[18],[19], et antifongiques dans le cadre des pathologies humaines[20] (des souches de champignons résistants sont néanmoins apparues[21]).
+Le bain préparé avec les feuilles donne un don de divination aux personnes qui possèdent des dons chamaniques (l'utilisation de cet arbre est réputée dangereuse).
+La sciure du bois de Bagassa guianensis peut être utilisé pour se propriétés adsorbantes remarquables.
+Les extraits de Bagassa guianensis ont des propriétés anti-corrosives sur le zinc et antifongiques dans le cadre des pathologies humaines (des souches de champignons résistants sont néanmoins apparues).
 Il dispose d'une densité typique des "bois de fer", d'où son emploi dans la construction, notamment les structures devant résister aux conditions environnementales humides et salines.
-Plantation
-L'intérêt potentiel de Bagassa guianensis en plantation est connu depuis longtemps[22]. Des plantations expérimentales sont suivies par l’ONF[23] et le CIRAD pour étudier sa culture. Cette essence forestière pourrait devenir en Guyane un sérieux concurrent local au teck qui a pourtant, lui, a fait l’objet de presque 200 ans de sélection[24],[25].
 </t>
         </is>
       </c>
@@ -660,14 +678,53 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'intérêt potentiel de Bagassa guianensis en plantation est connu depuis longtemps. Des plantations expérimentales sont suivies par l’ONF et le CIRAD pour étudier sa culture. Cette essence forestière pourrait devenir en Guyane un sérieux concurrent local au teck qui a pourtant, lui, a fait l’objet de presque 200 ans de sélection,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bagassa_guianensis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bagassa_guianensis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose le protologue suivant[26] : 
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose le protologue suivant : 
 « BAGASSA Guianenſis. (Tabula 376.)
-Bagaſſa arbor quâ. Indi ad extruendos lintres utuntur. Barr. Franc. Equinox, pag. 20.[27]
+Bagaſſa arbor quâ. Indi ad extruendos lintres utuntur. Barr. Franc. Equinox, pag. 20.
 Arbor craſſiſſima, altiſſima, rami numeroſi. Folia oppoſita, ampla, trilobata, integerrima, lobis acutis. Stipulæ utrinque binæ, oblongæ, membranaceæ, deciduæ. Fructus aurantii formâ. Bacca naveſcens, cortice membranaceo granulato, intiis carnoſa, ſub cortice pulpoſa. Semina plurima, ovato-acuta, pulpa obvoluta.
 Fructum ferebat Junio &amp; Julio.
 Habitat in ſylvis &amp; montibus Guianæ. 
